--- a/workingDirectory/Örnek_1 - Copy.xlsx
+++ b/workingDirectory/Örnek_1 - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="4365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Fabrika</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Sipariş No</t>
   </si>
   <si>
+    <t>Sipariş Miktarı</t>
+  </si>
+  <si>
     <t>Araç Plaka No</t>
   </si>
   <si>
@@ -40,12 +43,6 @@
   </si>
   <si>
     <t>Gönderim Miktarı</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>Sipariş Miktar</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -439,36 +436,36 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
